--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il27-Il27ra.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il27-Il27ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Il27</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.634956200750655</v>
+        <v>0.7775876666666667</v>
       </c>
       <c r="H2">
-        <v>0.634956200750655</v>
+        <v>2.332763</v>
       </c>
       <c r="I2">
-        <v>0.294216513237972</v>
+        <v>0.3159392227200309</v>
       </c>
       <c r="J2">
-        <v>0.294216513237972</v>
+        <v>0.3228625999100377</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.89853506846384</v>
+        <v>1.899454</v>
       </c>
       <c r="N2">
-        <v>1.89853506846384</v>
+        <v>3.798908</v>
       </c>
       <c r="O2">
-        <v>0.5133055948865295</v>
+        <v>0.4692036141039673</v>
       </c>
       <c r="P2">
-        <v>0.5133055948865295</v>
+        <v>0.3739095189885477</v>
       </c>
       <c r="Q2">
-        <v>1.205486614063684</v>
+        <v>1.476992003800667</v>
       </c>
       <c r="R2">
-        <v>1.205486614063684</v>
+        <v>8.861952022803999</v>
       </c>
       <c r="S2">
-        <v>0.1510229823530577</v>
+        <v>0.1482398251374368</v>
       </c>
       <c r="T2">
-        <v>0.1510229823530577</v>
+        <v>0.1207213994317541</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.634956200750655</v>
+        <v>0.7775876666666667</v>
       </c>
       <c r="H3">
-        <v>0.634956200750655</v>
+        <v>2.332763</v>
       </c>
       <c r="I3">
-        <v>0.294216513237972</v>
+        <v>0.3159392227200309</v>
       </c>
       <c r="J3">
-        <v>0.294216513237972</v>
+        <v>0.3228625999100377</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.447744728000976</v>
+        <v>0.5130936666666667</v>
       </c>
       <c r="N3">
-        <v>0.447744728000976</v>
+        <v>1.539281</v>
       </c>
       <c r="O3">
-        <v>0.1210564280752582</v>
+        <v>0.1267445290982863</v>
       </c>
       <c r="P3">
-        <v>0.1210564280752582</v>
+        <v>0.1515045424364609</v>
       </c>
       <c r="Q3">
-        <v>0.2842982913976351</v>
+        <v>0.3989753070447778</v>
       </c>
       <c r="R3">
-        <v>0.2842982913976351</v>
+        <v>3.590777763403</v>
       </c>
       <c r="S3">
-        <v>0.03561680017334581</v>
+        <v>0.04004356800732892</v>
       </c>
       <c r="T3">
-        <v>0.03561680017334581</v>
+        <v>0.0489151504692164</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.634956200750655</v>
+        <v>0.7775876666666667</v>
       </c>
       <c r="H4">
-        <v>0.634956200750655</v>
+        <v>2.332763</v>
       </c>
       <c r="I4">
-        <v>0.294216513237972</v>
+        <v>0.3159392227200309</v>
       </c>
       <c r="J4">
-        <v>0.294216513237972</v>
+        <v>0.3228625999100377</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.325876249647974</v>
+        <v>0.1162836666666667</v>
       </c>
       <c r="N4">
-        <v>0.325876249647974</v>
+        <v>0.348851</v>
       </c>
       <c r="O4">
-        <v>0.08810693305775533</v>
+        <v>0.02872442115537467</v>
       </c>
       <c r="P4">
-        <v>0.08810693305775533</v>
+        <v>0.03433584324986914</v>
       </c>
       <c r="Q4">
-        <v>0.2069171453913495</v>
+        <v>0.09042074503477779</v>
       </c>
       <c r="R4">
-        <v>0.2069171453913495</v>
+        <v>0.813786705313</v>
       </c>
       <c r="S4">
-        <v>0.02592251463634418</v>
+        <v>0.009075171292911886</v>
       </c>
       <c r="T4">
-        <v>0.02592251463634418</v>
+        <v>0.01108575962175627</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.634956200750655</v>
+        <v>0.7775876666666667</v>
       </c>
       <c r="H5">
-        <v>0.634956200750655</v>
+        <v>2.332763</v>
       </c>
       <c r="I5">
-        <v>0.294216513237972</v>
+        <v>0.3159392227200309</v>
       </c>
       <c r="J5">
-        <v>0.294216513237972</v>
+        <v>0.3228625999100377</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.02648875218427</v>
+        <v>0.3438503333333333</v>
       </c>
       <c r="N5">
-        <v>1.02648875218427</v>
+        <v>1.031551</v>
       </c>
       <c r="O5">
-        <v>0.2775310439804571</v>
+        <v>0.08493799750394264</v>
       </c>
       <c r="P5">
-        <v>0.2775310439804571</v>
+        <v>0.1015309500051476</v>
       </c>
       <c r="Q5">
-        <v>0.6517753982002047</v>
+        <v>0.2673737783792222</v>
       </c>
       <c r="R5">
-        <v>0.6517753982002047</v>
+        <v>2.406364005413</v>
       </c>
       <c r="S5">
-        <v>0.08165421607522434</v>
+        <v>0.02683524491079156</v>
       </c>
       <c r="T5">
-        <v>0.08165421607522434</v>
+        <v>0.03278054648999802</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.52316943863887</v>
+        <v>0.7775876666666667</v>
       </c>
       <c r="H6">
-        <v>1.52316943863887</v>
+        <v>2.332763</v>
       </c>
       <c r="I6">
-        <v>0.7057834867620281</v>
+        <v>0.3159392227200309</v>
       </c>
       <c r="J6">
-        <v>0.7057834867620281</v>
+        <v>0.3228625999100377</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.89853506846384</v>
+        <v>1.090236333333333</v>
       </c>
       <c r="N6">
-        <v>1.89853506846384</v>
+        <v>3.270709</v>
       </c>
       <c r="O6">
-        <v>0.5133055948865295</v>
+        <v>0.2693104585988698</v>
       </c>
       <c r="P6">
-        <v>0.5133055948865295</v>
+        <v>0.3219212544608909</v>
       </c>
       <c r="Q6">
-        <v>2.891790594468276</v>
+        <v>0.8477543265518889</v>
       </c>
       <c r="R6">
-        <v>2.891790594468276</v>
+        <v>7.629788938967</v>
       </c>
       <c r="S6">
-        <v>0.3622826125334718</v>
+        <v>0.08508573696010201</v>
       </c>
       <c r="T6">
-        <v>0.3622826125334718</v>
+        <v>0.103936333181544</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.52316943863887</v>
+        <v>0.7775876666666667</v>
       </c>
       <c r="H7">
-        <v>1.52316943863887</v>
+        <v>2.332763</v>
       </c>
       <c r="I7">
-        <v>0.7057834867620281</v>
+        <v>0.3159392227200309</v>
       </c>
       <c r="J7">
-        <v>0.7057834867620281</v>
+        <v>0.3228625999100377</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.447744728000976</v>
+        <v>0.08533300000000001</v>
       </c>
       <c r="N7">
-        <v>0.447744728000976</v>
+        <v>0.170666</v>
       </c>
       <c r="O7">
-        <v>0.1210564280752582</v>
+        <v>0.02107897953955918</v>
       </c>
       <c r="P7">
-        <v>0.1210564280752582</v>
+        <v>0.01679789085908358</v>
       </c>
       <c r="Q7">
-        <v>0.6819910860027601</v>
+        <v>0.06635388835966667</v>
       </c>
       <c r="R7">
-        <v>0.6819910860027601</v>
+        <v>0.398123330158</v>
       </c>
       <c r="S7">
-        <v>0.08543962790191241</v>
+        <v>0.006659676411459763</v>
       </c>
       <c r="T7">
-        <v>0.08543962790191241</v>
+        <v>0.005423410715768783</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.52316943863887</v>
+        <v>1.525274666666667</v>
       </c>
       <c r="H8">
-        <v>1.52316943863887</v>
+        <v>4.575824</v>
       </c>
       <c r="I8">
-        <v>0.7057834867620281</v>
+        <v>0.6197295987049103</v>
       </c>
       <c r="J8">
-        <v>0.7057834867620281</v>
+        <v>0.633310127677243</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.325876249647974</v>
+        <v>1.899454</v>
       </c>
       <c r="N8">
-        <v>0.325876249647974</v>
+        <v>3.798908</v>
       </c>
       <c r="O8">
-        <v>0.08810693305775533</v>
+        <v>0.4692036141039673</v>
       </c>
       <c r="P8">
-        <v>0.08810693305775533</v>
+        <v>0.3739095189885477</v>
       </c>
       <c r="Q8">
-        <v>0.4963647442420449</v>
+        <v>2.897189066698667</v>
       </c>
       <c r="R8">
-        <v>0.4963647442420449</v>
+        <v>17.383134400192</v>
       </c>
       <c r="S8">
-        <v>0.06218441842141115</v>
+        <v>0.2907793674795452</v>
       </c>
       <c r="T8">
-        <v>0.06218441842141115</v>
+        <v>0.2368006852103737</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,681 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.52316943863887</v>
+        <v>1.525274666666667</v>
       </c>
       <c r="H9">
-        <v>1.52316943863887</v>
+        <v>4.575824</v>
       </c>
       <c r="I9">
-        <v>0.7057834867620281</v>
+        <v>0.6197295987049103</v>
       </c>
       <c r="J9">
-        <v>0.7057834867620281</v>
+        <v>0.633310127677243</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.02648875218427</v>
+        <v>0.5130936666666667</v>
       </c>
       <c r="N9">
-        <v>1.02648875218427</v>
+        <v>1.539281</v>
       </c>
       <c r="O9">
-        <v>0.2775310439804571</v>
+        <v>0.1267445290982863</v>
       </c>
       <c r="P9">
-        <v>0.2775310439804571</v>
+        <v>0.1515045424364609</v>
       </c>
       <c r="Q9">
-        <v>1.563516296433629</v>
+        <v>0.7826087713937777</v>
       </c>
       <c r="R9">
-        <v>1.563516296433629</v>
+        <v>7.043478942544</v>
       </c>
       <c r="S9">
-        <v>0.1958768279052328</v>
+        <v>0.07854733615612379</v>
       </c>
       <c r="T9">
-        <v>0.1958768279052328</v>
+        <v>0.09594936111411734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.525274666666667</v>
+      </c>
+      <c r="H10">
+        <v>4.575824</v>
+      </c>
+      <c r="I10">
+        <v>0.6197295987049103</v>
+      </c>
+      <c r="J10">
+        <v>0.633310127677243</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1162836666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.348851</v>
+      </c>
+      <c r="O10">
+        <v>0.02872442115537467</v>
+      </c>
+      <c r="P10">
+        <v>0.03433584324986914</v>
+      </c>
+      <c r="Q10">
+        <v>0.1773645309137778</v>
+      </c>
+      <c r="R10">
+        <v>1.596280778224</v>
+      </c>
+      <c r="S10">
+        <v>0.01780137399565118</v>
+      </c>
+      <c r="T10">
+        <v>0.02174523727248043</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.525274666666667</v>
+      </c>
+      <c r="H11">
+        <v>4.575824</v>
+      </c>
+      <c r="I11">
+        <v>0.6197295987049103</v>
+      </c>
+      <c r="J11">
+        <v>0.633310127677243</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3438503333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.031551</v>
+      </c>
+      <c r="O11">
+        <v>0.08493799750394264</v>
+      </c>
+      <c r="P11">
+        <v>0.1015309500051476</v>
+      </c>
+      <c r="Q11">
+        <v>0.5244662025582222</v>
+      </c>
+      <c r="R11">
+        <v>4.720195823024</v>
+      </c>
+      <c r="S11">
+        <v>0.05263859110791704</v>
+      </c>
+      <c r="T11">
+        <v>0.06430057891095184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.525274666666667</v>
+      </c>
+      <c r="H12">
+        <v>4.575824</v>
+      </c>
+      <c r="I12">
+        <v>0.6197295987049103</v>
+      </c>
+      <c r="J12">
+        <v>0.633310127677243</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.090236333333333</v>
+      </c>
+      <c r="N12">
+        <v>3.270709</v>
+      </c>
+      <c r="O12">
+        <v>0.2693104585988698</v>
+      </c>
+      <c r="P12">
+        <v>0.3219212544608909</v>
+      </c>
+      <c r="Q12">
+        <v>1.662909859912889</v>
+      </c>
+      <c r="R12">
+        <v>14.966188739216</v>
+      </c>
+      <c r="S12">
+        <v>0.166899662434513</v>
+      </c>
+      <c r="T12">
+        <v>0.203875990764645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.525274666666667</v>
+      </c>
+      <c r="H13">
+        <v>4.575824</v>
+      </c>
+      <c r="I13">
+        <v>0.6197295987049103</v>
+      </c>
+      <c r="J13">
+        <v>0.633310127677243</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.08533300000000001</v>
+      </c>
+      <c r="N13">
+        <v>0.170666</v>
+      </c>
+      <c r="O13">
+        <v>0.02107897953955918</v>
+      </c>
+      <c r="P13">
+        <v>0.01679789085908358</v>
+      </c>
+      <c r="Q13">
+        <v>0.1301562631306667</v>
+      </c>
+      <c r="R13">
+        <v>0.7809375787840001</v>
+      </c>
+      <c r="S13">
+        <v>0.01306326753116003</v>
+      </c>
+      <c r="T13">
+        <v>0.01063827440467462</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.1583315</v>
+      </c>
+      <c r="H14">
+        <v>0.316663</v>
+      </c>
+      <c r="I14">
+        <v>0.06433117857505873</v>
+      </c>
+      <c r="J14">
+        <v>0.04382727241271928</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.899454</v>
+      </c>
+      <c r="N14">
+        <v>3.798908</v>
+      </c>
+      <c r="O14">
+        <v>0.4692036141039673</v>
+      </c>
+      <c r="P14">
+        <v>0.3739095189885477</v>
+      </c>
+      <c r="Q14">
+        <v>0.3007434010009999</v>
+      </c>
+      <c r="R14">
+        <v>1.202973604004</v>
+      </c>
+      <c r="S14">
+        <v>0.03018442148698526</v>
+      </c>
+      <c r="T14">
+        <v>0.01638743434641992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.1583315</v>
+      </c>
+      <c r="H15">
+        <v>0.316663</v>
+      </c>
+      <c r="I15">
+        <v>0.06433117857505873</v>
+      </c>
+      <c r="J15">
+        <v>0.04382727241271928</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.5130936666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.539281</v>
+      </c>
+      <c r="O15">
+        <v>0.1267445290982863</v>
+      </c>
+      <c r="P15">
+        <v>0.1515045424364609</v>
+      </c>
+      <c r="Q15">
+        <v>0.08123888988383332</v>
+      </c>
+      <c r="R15">
+        <v>0.4874333393029999</v>
+      </c>
+      <c r="S15">
+        <v>0.008153624934833582</v>
+      </c>
+      <c r="T15">
+        <v>0.00664003085312716</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.1583315</v>
+      </c>
+      <c r="H16">
+        <v>0.316663</v>
+      </c>
+      <c r="I16">
+        <v>0.06433117857505873</v>
+      </c>
+      <c r="J16">
+        <v>0.04382727241271928</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1162836666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.348851</v>
+      </c>
+      <c r="O16">
+        <v>0.02872442115537467</v>
+      </c>
+      <c r="P16">
+        <v>0.03433584324986914</v>
+      </c>
+      <c r="Q16">
+        <v>0.01841136736883333</v>
+      </c>
+      <c r="R16">
+        <v>0.110468204213</v>
+      </c>
+      <c r="S16">
+        <v>0.001847875866811602</v>
+      </c>
+      <c r="T16">
+        <v>0.001504846355632444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.1583315</v>
+      </c>
+      <c r="H17">
+        <v>0.316663</v>
+      </c>
+      <c r="I17">
+        <v>0.06433117857505873</v>
+      </c>
+      <c r="J17">
+        <v>0.04382727241271928</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3438503333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.031551</v>
+      </c>
+      <c r="O17">
+        <v>0.08493799750394264</v>
+      </c>
+      <c r="P17">
+        <v>0.1015309500051476</v>
+      </c>
+      <c r="Q17">
+        <v>0.05444233905216666</v>
+      </c>
+      <c r="R17">
+        <v>0.3266540343129999</v>
+      </c>
+      <c r="S17">
+        <v>0.005464161485234026</v>
+      </c>
+      <c r="T17">
+        <v>0.004449824604197788</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.1583315</v>
+      </c>
+      <c r="H18">
+        <v>0.316663</v>
+      </c>
+      <c r="I18">
+        <v>0.06433117857505873</v>
+      </c>
+      <c r="J18">
+        <v>0.04382727241271928</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.090236333333333</v>
+      </c>
+      <c r="N18">
+        <v>3.270709</v>
+      </c>
+      <c r="O18">
+        <v>0.2693104585988698</v>
+      </c>
+      <c r="P18">
+        <v>0.3219212544608909</v>
+      </c>
+      <c r="Q18">
+        <v>0.1726187540111667</v>
+      </c>
+      <c r="R18">
+        <v>1.035712524067</v>
+      </c>
+      <c r="S18">
+        <v>0.01732505920425485</v>
+      </c>
+      <c r="T18">
+        <v>0.01410893051470179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.1583315</v>
+      </c>
+      <c r="H19">
+        <v>0.316663</v>
+      </c>
+      <c r="I19">
+        <v>0.06433117857505873</v>
+      </c>
+      <c r="J19">
+        <v>0.04382727241271928</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <v>0.08533300000000001</v>
+      </c>
+      <c r="N19">
+        <v>0.170666</v>
+      </c>
+      <c r="O19">
+        <v>0.02107897953955918</v>
+      </c>
+      <c r="P19">
+        <v>0.01679789085908358</v>
+      </c>
+      <c r="Q19">
+        <v>0.0135109018895</v>
+      </c>
+      <c r="R19">
+        <v>0.054043607558</v>
+      </c>
+      <c r="S19">
+        <v>0.001356035596939391</v>
+      </c>
+      <c r="T19">
+        <v>0.0007362057386401834</v>
       </c>
     </row>
   </sheetData>
